--- a/srv/src/main/resources/template/消費税差額差処理.xlsx
+++ b/srv/src/main/resources/template/消費税差額差処理.xlsx
@@ -10,7 +10,7 @@
     <sheet name="SAPUI5 导出" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SAPUI5 导出'!$B$1:$S$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SAPUI5 导出'!$B$1:$T$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <r>
       <rPr>
@@ -94,6 +94,31 @@
     <t>*伝票通貨での請求書総額</t>
   </si>
   <si>
+    <r>
+      <t>明細</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>テキスト</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(50)</t>
+    </r>
+  </si>
+  <si>
     <t>税率定義の日付</t>
   </si>
   <si>
@@ -146,6 +171,9 @@
   </si>
   <si>
     <t>{.DIFF_TAX_AMOUNT}</t>
+  </si>
+  <si>
+    <t>{.DETAILTEXT50}</t>
   </si>
   <si>
     <t>{.LASTDATE2}</t>
@@ -182,7 +210,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +225,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -351,7 +386,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="MS Gothic"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -664,155 +699,156 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1139,12 +1175,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -1153,20 +1189,23 @@
     <col min="2" max="2" width="15.8" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="5" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="18.2" customWidth="1"/>
     <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="15.25" customWidth="1"/>
-    <col min="12" max="12" width="10.75" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
-    <col min="14" max="15" width="10.75" customWidth="1"/>
-    <col min="16" max="16" width="23.25" customWidth="1"/>
-    <col min="17" max="17" width="11.25" customWidth="1"/>
-    <col min="18" max="18" width="10.75" customWidth="1"/>
-    <col min="19" max="19" width="23.5" customWidth="1"/>
+    <col min="11" max="11" width="23.4" customWidth="1"/>
+    <col min="12" max="12" width="15.25" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="12.25" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="16" max="16" width="16.8" customWidth="1"/>
+    <col min="17" max="17" width="23.25" customWidth="1"/>
+    <col min="18" max="18" width="11.25" customWidth="1"/>
+    <col min="19" max="19" width="10.75" customWidth="1"/>
+    <col min="20" max="20" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.4" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="14.4" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1200,14 +1239,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
@@ -1224,68 +1263,74 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B1:S6" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B1:T6" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/srv/src/main/resources/template/消費税差額差処理.xlsx
+++ b/srv/src/main/resources/template/消費税差額差処理.xlsx
@@ -1183,7 +1183,7 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
@@ -1194,17 +1194,18 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15.8" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="10.9" customWidth="1"/>
     <col min="9" max="9" width="18.2" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="23.4" customWidth="1"/>
     <col min="12" max="12" width="15.25" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="12.25" customWidth="1"/>
     <col min="15" max="15" width="10.75" customWidth="1"/>
-    <col min="16" max="16" width="16.8" customWidth="1"/>
+    <col min="16" max="16" width="14.8" customWidth="1"/>
     <col min="17" max="17" width="23.25" customWidth="1"/>
     <col min="18" max="18" width="11.25" customWidth="1"/>
     <col min="19" max="19" width="10.75" customWidth="1"/>

--- a/srv/src/main/resources/template/消費税差額差処理.xlsx
+++ b/srv/src/main/resources/template/消費税差額差処理.xlsx
@@ -217,7 +217,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +230,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -706,28 +719,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,125 +740,135 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1183,10 +1197,10 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -1212,127 +1226,127 @@
     <col min="20" max="20" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.4" spans="1:20">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:20">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="15" spans="1:20">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="3" t="s">
         <v>38</v>
       </c>
     </row>

--- a/srv/src/main/resources/template/消費税差額差処理.xlsx
+++ b/srv/src/main/resources/template/消費税差額差処理.xlsx
@@ -95,24 +95,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>明細</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>テキスト</t>
+      <t>明細テキスト</t>
     </r>
     <r>
       <rPr>
@@ -120,7 +103,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <charset val="128"/>
       </rPr>
       <t>(50)</t>
     </r>
@@ -399,14 +382,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Arial"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="MS Gothic"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1197,10 +1180,10 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -1215,7 +1198,7 @@
     <col min="9" max="9" width="18.2" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="23.4" customWidth="1"/>
-    <col min="12" max="12" width="15.25" customWidth="1"/>
+    <col min="12" max="12" width="17.1" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="12.25" customWidth="1"/>
     <col min="15" max="15" width="10.75" customWidth="1"/>

--- a/srv/src/main/resources/template/消費税差額差処理.xlsx
+++ b/srv/src/main/resources/template/消費税差額差処理.xlsx
@@ -32,69 +32,47 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
+    <t>*請求書ID</t>
+  </si>
+  <si>
+    <t>*会社コード(4)</t>
+  </si>
+  <si>
+    <t>*取引(1)1=請求書、2=クレジットメモ</t>
+  </si>
+  <si>
+    <t>*請求元(10)</t>
+  </si>
+  <si>
+    <t>参照(16)</t>
+  </si>
+  <si>
+    <t>*伝票日付</t>
+  </si>
+  <si>
+    <t>*転記日付</t>
+  </si>
+  <si>
+    <t>*伝票タイプ</t>
+  </si>
+  <si>
+    <t>伝票ヘッダテキスト(25)</t>
+  </si>
+  <si>
+    <t>*通貨(5)</t>
+  </si>
+  <si>
+    <t>*伝票通貨での請求書総額</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
       </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>請求書</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-  </si>
-  <si>
-    <t>*会社コード(4)</t>
-  </si>
-  <si>
-    <t>*取引(1)1=請求書、2=クレジットメモ</t>
-  </si>
-  <si>
-    <t>*請求元(10)</t>
-  </si>
-  <si>
-    <t>参照(16)</t>
-  </si>
-  <si>
-    <t>*伝票日付</t>
-  </si>
-  <si>
-    <t>*転記日付</t>
-  </si>
-  <si>
-    <t>*伝票タイプ</t>
-  </si>
-  <si>
-    <t>伝票ヘッダテキスト(25)</t>
-  </si>
-  <si>
-    <t>*通貨(5)</t>
-  </si>
-  <si>
-    <t>*伝票通貨での請求書総額</t>
-  </si>
-  <si>
-    <r>
       <t>明細テキスト</t>
     </r>
     <r>
@@ -200,7 +178,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,13 +362,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1180,10 +1151,10 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1"/>

--- a/srv/src/main/resources/template/消費税差額差処理.xlsx
+++ b/srv/src/main/resources/template/消費税差額差処理.xlsx
@@ -111,7 +111,7 @@
     <t>{.INVOICEID}</t>
   </si>
   <si>
-    <t>{.PO_BUKRS}</t>
+    <t>{.COMPANY_CODE}</t>
   </si>
   <si>
     <t>{.TRANSACTION}</t>
@@ -147,7 +147,7 @@
     <t>{.LASTDATE2}</t>
   </si>
   <si>
-    <t>{.PO_BUKRS1}</t>
+    <t>{.COMPANY_CODE1}</t>
   </si>
   <si>
     <t>{.ACCOUNT}</t>
@@ -1154,13 +1154,13 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="15.8" customWidth="1"/>
+    <col min="2" max="2" width="13.2" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
@@ -1171,7 +1171,7 @@
     <col min="11" max="11" width="23.4" customWidth="1"/>
     <col min="12" max="12" width="17.1" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="12.25" customWidth="1"/>
+    <col min="14" max="14" width="13.3" customWidth="1"/>
     <col min="15" max="15" width="10.75" customWidth="1"/>
     <col min="16" max="16" width="14.8" customWidth="1"/>
     <col min="17" max="17" width="23.25" customWidth="1"/>
